--- a/aircraft/reports/manufacturer-popularity-counts.xlsx
+++ b/aircraft/reports/manufacturer-popularity-counts.xlsx
@@ -685,13 +685,13 @@
         <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="F8" t="n">
         <v>12</v>
